--- a/natmiOut/OldD2/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Serpinf1-Plxdc2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.02037941371794</v>
+        <v>4.398556</v>
       </c>
       <c r="H2">
-        <v>4.02037941371794</v>
+        <v>8.797112</v>
       </c>
       <c r="I2">
-        <v>0.01866925957272687</v>
+        <v>0.01861488074046137</v>
       </c>
       <c r="J2">
-        <v>0.01866925957272687</v>
+        <v>0.01298930202922164</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.80594684963588</v>
+        <v>0.8572995000000001</v>
       </c>
       <c r="N2">
-        <v>0.80594684963588</v>
+        <v>1.714599</v>
       </c>
       <c r="O2">
-        <v>0.01463865065748514</v>
+        <v>0.01398780672512048</v>
       </c>
       <c r="P2">
-        <v>0.01463865065748514</v>
+        <v>0.01013034427226421</v>
       </c>
       <c r="Q2">
-        <v>3.24021212282692</v>
+        <v>3.770879859522001</v>
       </c>
       <c r="R2">
-        <v>3.24021212282692</v>
+        <v>15.083519438088</v>
       </c>
       <c r="S2">
-        <v>0.000273292768919059</v>
+        <v>0.0002603813540087412</v>
       </c>
       <c r="T2">
-        <v>0.000273292768919059</v>
+        <v>0.0001315861014124352</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.02037941371794</v>
+        <v>4.398556</v>
       </c>
       <c r="H3">
-        <v>4.02037941371794</v>
+        <v>8.797112</v>
       </c>
       <c r="I3">
-        <v>0.01866925957272687</v>
+        <v>0.01861488074046137</v>
       </c>
       <c r="J3">
-        <v>0.01866925957272687</v>
+        <v>0.01298930202922164</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.6801638071778</v>
+        <v>40.519894</v>
       </c>
       <c r="N3">
-        <v>37.6801638071778</v>
+        <v>121.559682</v>
       </c>
       <c r="O3">
-        <v>0.6843959436522313</v>
+        <v>0.6611276990064369</v>
       </c>
       <c r="P3">
-        <v>0.6843959436522313</v>
+        <v>0.7182095803665802</v>
       </c>
       <c r="Q3">
-        <v>151.4885548758974</v>
+        <v>178.229022873064</v>
       </c>
       <c r="R3">
-        <v>151.4885548758974</v>
+        <v>1069.374137238384</v>
       </c>
       <c r="S3">
-        <v>0.01277716552256486</v>
+        <v>0.01230681327122046</v>
       </c>
       <c r="T3">
-        <v>0.01277716552256486</v>
+        <v>0.00932904115966204</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.02037941371794</v>
+        <v>4.398556</v>
       </c>
       <c r="H4">
-        <v>4.02037941371794</v>
+        <v>8.797112</v>
       </c>
       <c r="I4">
-        <v>0.01866925957272687</v>
+        <v>0.01861488074046137</v>
       </c>
       <c r="J4">
-        <v>0.01866925957272687</v>
+        <v>0.01298930202922164</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6926832104469109</v>
+        <v>1.90949</v>
       </c>
       <c r="N4">
-        <v>0.6926832104469109</v>
+        <v>5.728470000000001</v>
       </c>
       <c r="O4">
-        <v>0.01258140972772427</v>
+        <v>0.031155479576916</v>
       </c>
       <c r="P4">
-        <v>0.01258140972772427</v>
+        <v>0.03384544914194942</v>
       </c>
       <c r="Q4">
-        <v>2.784849319508812</v>
+        <v>8.398998696440001</v>
       </c>
       <c r="R4">
-        <v>2.784849319508812</v>
+        <v>50.39399217864</v>
       </c>
       <c r="S4">
-        <v>0.0002348856039977153</v>
+        <v>0.0005799555367361712</v>
       </c>
       <c r="T4">
-        <v>0.0002348856039977153</v>
+        <v>0.0004396287612194413</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.02037941371794</v>
+        <v>4.398556</v>
       </c>
       <c r="H5">
-        <v>4.02037941371794</v>
+        <v>8.797112</v>
       </c>
       <c r="I5">
-        <v>0.01866925957272687</v>
+        <v>0.01861488074046137</v>
       </c>
       <c r="J5">
-        <v>0.01866925957272687</v>
+        <v>0.01298930202922164</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.260169673455239</v>
+        <v>0.5357033333333333</v>
       </c>
       <c r="N5">
-        <v>0.260169673455239</v>
+        <v>1.60711</v>
       </c>
       <c r="O5">
-        <v>0.004725538617222577</v>
+        <v>0.008740603124893291</v>
       </c>
       <c r="P5">
-        <v>0.004725538617222577</v>
+        <v>0.009495268330028494</v>
       </c>
       <c r="Q5">
-        <v>1.045980799233162</v>
+        <v>2.356321111053333</v>
       </c>
       <c r="R5">
-        <v>1.045980799233162</v>
+        <v>14.13792666632</v>
       </c>
       <c r="S5">
-        <v>8.822230706587312E-05</v>
+        <v>0.0001627052847695926</v>
       </c>
       <c r="T5">
-        <v>8.822230706587312E-05</v>
+        <v>0.0001233369081872431</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.02037941371794</v>
+        <v>4.398556</v>
       </c>
       <c r="H6">
-        <v>4.02037941371794</v>
+        <v>8.797112</v>
       </c>
       <c r="I6">
-        <v>0.01866925957272687</v>
+        <v>0.01861488074046137</v>
       </c>
       <c r="J6">
-        <v>0.01866925957272687</v>
+        <v>0.01298930202922164</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.95926236869175</v>
+        <v>3.710570333333333</v>
       </c>
       <c r="N6">
-        <v>1.95926236869175</v>
+        <v>11.131711</v>
       </c>
       <c r="O6">
-        <v>0.0355866610491662</v>
+        <v>0.06054213336486552</v>
       </c>
       <c r="P6">
-        <v>0.0355866610491662</v>
+        <v>0.0657693517664191</v>
       </c>
       <c r="Q6">
-        <v>7.87697809316056</v>
+        <v>16.32115140310533</v>
       </c>
       <c r="R6">
-        <v>7.87697809316056</v>
+        <v>97.926908418632</v>
       </c>
       <c r="S6">
-        <v>0.0006643766124535327</v>
+        <v>0.001126984592360079</v>
       </c>
       <c r="T6">
-        <v>0.0006643766124535327</v>
+        <v>0.0008542979743601392</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.02037941371794</v>
+        <v>4.398556</v>
       </c>
       <c r="H7">
-        <v>4.02037941371794</v>
+        <v>8.797112</v>
       </c>
       <c r="I7">
-        <v>0.01866925957272687</v>
+        <v>0.01861488074046137</v>
       </c>
       <c r="J7">
-        <v>0.01866925957272687</v>
+        <v>0.01298930202922164</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.6578628308328</v>
+        <v>13.756101</v>
       </c>
       <c r="N7">
-        <v>13.6578628308328</v>
+        <v>27.512202</v>
       </c>
       <c r="O7">
-        <v>0.2480717962961705</v>
+        <v>0.2244462782017679</v>
       </c>
       <c r="P7">
-        <v>0.2480717962961705</v>
+        <v>0.1625500061227586</v>
       </c>
       <c r="Q7">
-        <v>54.90979056046361</v>
+        <v>60.506980590156</v>
       </c>
       <c r="R7">
-        <v>54.90979056046361</v>
+        <v>242.027922360624</v>
       </c>
       <c r="S7">
-        <v>0.004631316757725833</v>
+        <v>0.004178040701366324</v>
       </c>
       <c r="T7">
-        <v>0.004631316757725833</v>
+        <v>0.002111411124380338</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>179.657937738089</v>
+        <v>198.3456596666666</v>
       </c>
       <c r="H8">
-        <v>179.657937738089</v>
+        <v>595.036979</v>
       </c>
       <c r="I8">
-        <v>0.8342696867088527</v>
+        <v>0.8394074782913161</v>
       </c>
       <c r="J8">
-        <v>0.8342696867088527</v>
+        <v>0.878596866651989</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.80594684963588</v>
+        <v>0.8572995000000001</v>
       </c>
       <c r="N8">
-        <v>0.80594684963588</v>
+        <v>1.714599</v>
       </c>
       <c r="O8">
-        <v>0.01463865065748514</v>
+        <v>0.01398780672512048</v>
       </c>
       <c r="P8">
-        <v>0.01463865065748514</v>
+        <v>0.01013034427226421</v>
       </c>
       <c r="Q8">
-        <v>144.7947489320919</v>
+        <v>170.0416348594035</v>
       </c>
       <c r="R8">
-        <v>144.7947489320919</v>
+        <v>1020.249809156421</v>
       </c>
       <c r="S8">
-        <v>0.01221258249786047</v>
+        <v>0.01174146956995969</v>
       </c>
       <c r="T8">
-        <v>0.01221258249786047</v>
+        <v>0.008900488735717254</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>179.657937738089</v>
+        <v>198.3456596666666</v>
       </c>
       <c r="H9">
-        <v>179.657937738089</v>
+        <v>595.036979</v>
       </c>
       <c r="I9">
-        <v>0.8342696867088527</v>
+        <v>0.8394074782913161</v>
       </c>
       <c r="J9">
-        <v>0.8342696867088527</v>
+        <v>0.878596866651989</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>37.6801638071778</v>
+        <v>40.519894</v>
       </c>
       <c r="N9">
-        <v>37.6801638071778</v>
+        <v>121.559682</v>
       </c>
       <c r="O9">
-        <v>0.6843959436522313</v>
+        <v>0.6611276990064369</v>
       </c>
       <c r="P9">
-        <v>0.6843959436522313</v>
+        <v>0.7182095803665802</v>
       </c>
       <c r="Q9">
-        <v>6769.540523230944</v>
+        <v>8036.945105053408</v>
       </c>
       <c r="R9">
-        <v>6769.540523230944</v>
+        <v>72332.50594548068</v>
       </c>
       <c r="S9">
-        <v>0.5709707894955567</v>
+        <v>0.5549555346515335</v>
       </c>
       <c r="T9">
-        <v>0.5709707894955567</v>
+        <v>0.6310166869095173</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>179.657937738089</v>
+        <v>198.3456596666666</v>
       </c>
       <c r="H10">
-        <v>179.657937738089</v>
+        <v>595.036979</v>
       </c>
       <c r="I10">
-        <v>0.8342696867088527</v>
+        <v>0.8394074782913161</v>
       </c>
       <c r="J10">
-        <v>0.8342696867088527</v>
+        <v>0.878596866651989</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6926832104469109</v>
+        <v>1.90949</v>
       </c>
       <c r="N10">
-        <v>0.6926832104469109</v>
+        <v>5.728470000000001</v>
       </c>
       <c r="O10">
-        <v>0.01258140972772427</v>
+        <v>0.031155479576916</v>
       </c>
       <c r="P10">
-        <v>0.01258140972772427</v>
+        <v>0.03384544914194942</v>
       </c>
       <c r="Q10">
-        <v>124.4460370946907</v>
+        <v>378.7390536769033</v>
       </c>
       <c r="R10">
-        <v>124.4460370946907</v>
+        <v>3408.65148309213</v>
       </c>
       <c r="S10">
-        <v>0.01049628875190424</v>
+        <v>0.02615214254661566</v>
       </c>
       <c r="T10">
-        <v>0.01049628875190424</v>
+        <v>0.02973650556654601</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>179.657937738089</v>
+        <v>198.3456596666666</v>
       </c>
       <c r="H11">
-        <v>179.657937738089</v>
+        <v>595.036979</v>
       </c>
       <c r="I11">
-        <v>0.8342696867088527</v>
+        <v>0.8394074782913161</v>
       </c>
       <c r="J11">
-        <v>0.8342696867088527</v>
+        <v>0.878596866651989</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.260169673455239</v>
+        <v>0.5357033333333333</v>
       </c>
       <c r="N11">
-        <v>0.260169673455239</v>
+        <v>1.60711</v>
       </c>
       <c r="O11">
-        <v>0.004725538617222577</v>
+        <v>0.008740603124893291</v>
       </c>
       <c r="P11">
-        <v>0.004725538617222577</v>
+        <v>0.009495268330028494</v>
       </c>
       <c r="Q11">
-        <v>46.74154699496027</v>
+        <v>106.2544310356322</v>
       </c>
       <c r="R11">
-        <v>46.74154699496027</v>
+        <v>956.28987932069</v>
       </c>
       <c r="S11">
-        <v>0.003942373621720865</v>
+        <v>0.007336927627811875</v>
       </c>
       <c r="T11">
-        <v>0.003942373621720865</v>
+        <v>0.008342513002782898</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>179.657937738089</v>
+        <v>198.3456596666666</v>
       </c>
       <c r="H12">
-        <v>179.657937738089</v>
+        <v>595.036979</v>
       </c>
       <c r="I12">
-        <v>0.8342696867088527</v>
+        <v>0.8394074782913161</v>
       </c>
       <c r="J12">
-        <v>0.8342696867088527</v>
+        <v>0.878596866651989</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.95926236869175</v>
+        <v>3.710570333333333</v>
       </c>
       <c r="N12">
-        <v>1.95926236869175</v>
+        <v>11.131711</v>
       </c>
       <c r="O12">
-        <v>0.0355866610491662</v>
+        <v>0.06054213336486552</v>
       </c>
       <c r="P12">
-        <v>0.0355866610491662</v>
+        <v>0.0657693517664191</v>
       </c>
       <c r="Q12">
-        <v>351.9970366470032</v>
+        <v>735.9755205045631</v>
       </c>
       <c r="R12">
-        <v>351.9970366470032</v>
+        <v>6623.779684541068</v>
       </c>
       <c r="S12">
-        <v>0.02968887256450202</v>
+        <v>0.05081951949817832</v>
       </c>
       <c r="T12">
-        <v>0.02968887256450202</v>
+        <v>0.05778474638370828</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>179.657937738089</v>
+        <v>198.3456596666666</v>
       </c>
       <c r="H13">
-        <v>179.657937738089</v>
+        <v>595.036979</v>
       </c>
       <c r="I13">
-        <v>0.8342696867088527</v>
+        <v>0.8394074782913161</v>
       </c>
       <c r="J13">
-        <v>0.8342696867088527</v>
+        <v>0.878596866651989</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.6578628308328</v>
+        <v>13.756101</v>
       </c>
       <c r="N13">
-        <v>13.6578628308328</v>
+        <v>27.512202</v>
       </c>
       <c r="O13">
-        <v>0.2480717962961705</v>
+        <v>0.2244462782017679</v>
       </c>
       <c r="P13">
-        <v>0.2480717962961705</v>
+        <v>0.1625500061227586</v>
       </c>
       <c r="Q13">
-        <v>2453.743470097119</v>
+        <v>2728.462927286293</v>
       </c>
       <c r="R13">
-        <v>2453.743470097119</v>
+        <v>16370.77756371776</v>
       </c>
       <c r="S13">
-        <v>0.2069587797773085</v>
+        <v>0.1884018843972172</v>
       </c>
       <c r="T13">
-        <v>0.2069587797773085</v>
+        <v>0.1428159260537173</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.78920300606063</v>
+        <v>1.108348666666667</v>
       </c>
       <c r="H14">
-        <v>0.78920300606063</v>
+        <v>3.325046</v>
       </c>
       <c r="I14">
-        <v>0.00366478738933169</v>
+        <v>0.00469057987413355</v>
       </c>
       <c r="J14">
-        <v>0.00366478738933169</v>
+        <v>0.004909568817022596</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.80594684963588</v>
+        <v>0.8572995000000001</v>
       </c>
       <c r="N14">
-        <v>0.80594684963588</v>
+        <v>1.714599</v>
       </c>
       <c r="O14">
-        <v>0.01463865065748514</v>
+        <v>0.01398780672512048</v>
       </c>
       <c r="P14">
-        <v>0.01463865065748514</v>
+        <v>0.01013034427226421</v>
       </c>
       <c r="Q14">
-        <v>0.6360556764577311</v>
+        <v>0.9501867577590001</v>
       </c>
       <c r="R14">
-        <v>0.6360556764577311</v>
+        <v>5.701120546554001</v>
       </c>
       <c r="S14">
-        <v>5.36475423263836E-05</v>
+        <v>6.561092470812003E-05</v>
       </c>
       <c r="T14">
-        <v>5.36475423263836E-05</v>
+        <v>4.97356223448118E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.78920300606063</v>
+        <v>1.108348666666667</v>
       </c>
       <c r="H15">
-        <v>0.78920300606063</v>
+        <v>3.325046</v>
       </c>
       <c r="I15">
-        <v>0.00366478738933169</v>
+        <v>0.00469057987413355</v>
       </c>
       <c r="J15">
-        <v>0.00366478738933169</v>
+        <v>0.004909568817022596</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.6801638071778</v>
+        <v>40.519894</v>
       </c>
       <c r="N15">
-        <v>37.6801638071778</v>
+        <v>121.559682</v>
       </c>
       <c r="O15">
-        <v>0.6843959436522313</v>
+        <v>0.6611276990064369</v>
       </c>
       <c r="P15">
-        <v>0.6843959436522313</v>
+        <v>0.7182095803665802</v>
       </c>
       <c r="Q15">
-        <v>29.73729854548167</v>
+        <v>44.91017048837467</v>
       </c>
       <c r="R15">
-        <v>29.73729854548167</v>
+        <v>404.191534395372</v>
       </c>
       <c r="S15">
-        <v>0.00250816562360646</v>
+        <v>0.003101072279191816</v>
       </c>
       <c r="T15">
-        <v>0.00250816562360646</v>
+        <v>0.003526099359854646</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.78920300606063</v>
+        <v>1.108348666666667</v>
       </c>
       <c r="H16">
-        <v>0.78920300606063</v>
+        <v>3.325046</v>
       </c>
       <c r="I16">
-        <v>0.00366478738933169</v>
+        <v>0.00469057987413355</v>
       </c>
       <c r="J16">
-        <v>0.00366478738933169</v>
+        <v>0.004909568817022596</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.6926832104469109</v>
+        <v>1.90949</v>
       </c>
       <c r="N16">
-        <v>0.6926832104469109</v>
+        <v>5.728470000000001</v>
       </c>
       <c r="O16">
-        <v>0.01258140972772427</v>
+        <v>0.031155479576916</v>
       </c>
       <c r="P16">
-        <v>0.01258140972772427</v>
+        <v>0.03384544914194942</v>
       </c>
       <c r="Q16">
-        <v>0.54666767193243</v>
+        <v>2.116380695513334</v>
       </c>
       <c r="R16">
-        <v>0.54666767193243</v>
+        <v>19.04742625962</v>
       </c>
       <c r="S16">
-        <v>4.610819171017896E-05</v>
+        <v>0.000146137265472461</v>
       </c>
       <c r="T16">
-        <v>4.610819171017896E-05</v>
+        <v>0.000166166561705439</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.78920300606063</v>
+        <v>1.108348666666667</v>
       </c>
       <c r="H17">
-        <v>0.78920300606063</v>
+        <v>3.325046</v>
       </c>
       <c r="I17">
-        <v>0.00366478738933169</v>
+        <v>0.00469057987413355</v>
       </c>
       <c r="J17">
-        <v>0.00366478738933169</v>
+        <v>0.004909568817022596</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.260169673455239</v>
+        <v>0.5357033333333333</v>
       </c>
       <c r="N17">
-        <v>0.260169673455239</v>
+        <v>1.60711</v>
       </c>
       <c r="O17">
-        <v>0.004725538617222577</v>
+        <v>0.008740603124893291</v>
       </c>
       <c r="P17">
-        <v>0.004725538617222577</v>
+        <v>0.009495268330028494</v>
       </c>
       <c r="Q17">
-        <v>0.2053266883766871</v>
+        <v>0.5937460752288889</v>
       </c>
       <c r="R17">
-        <v>0.2053266883766871</v>
+        <v>5.34371467706</v>
       </c>
       <c r="S17">
-        <v>1.731809433219721E-05</v>
+        <v>4.099849710541329E-05</v>
       </c>
       <c r="T17">
-        <v>1.731809433219721E-05</v>
+        <v>4.661767330237011E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.78920300606063</v>
+        <v>1.108348666666667</v>
       </c>
       <c r="H18">
-        <v>0.78920300606063</v>
+        <v>3.325046</v>
       </c>
       <c r="I18">
-        <v>0.00366478738933169</v>
+        <v>0.00469057987413355</v>
       </c>
       <c r="J18">
-        <v>0.00366478738933169</v>
+        <v>0.004909568817022596</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.95926236869175</v>
+        <v>3.710570333333333</v>
       </c>
       <c r="N18">
-        <v>1.95926236869175</v>
+        <v>11.131711</v>
       </c>
       <c r="O18">
-        <v>0.0355866610491662</v>
+        <v>0.06054213336486552</v>
       </c>
       <c r="P18">
-        <v>0.0355866610491662</v>
+        <v>0.0657693517664191</v>
       </c>
       <c r="Q18">
-        <v>1.546255751033</v>
+        <v>4.112605681522888</v>
       </c>
       <c r="R18">
-        <v>1.546255751033</v>
+        <v>37.013451133706</v>
       </c>
       <c r="S18">
-        <v>0.0001304175466414056</v>
+        <v>0.0002839777122983475</v>
       </c>
       <c r="T18">
-        <v>0.0001304175466414056</v>
+        <v>0.0003228991585482012</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.78920300606063</v>
+        <v>1.108348666666667</v>
       </c>
       <c r="H19">
-        <v>0.78920300606063</v>
+        <v>3.325046</v>
       </c>
       <c r="I19">
-        <v>0.00366478738933169</v>
+        <v>0.00469057987413355</v>
       </c>
       <c r="J19">
-        <v>0.00366478738933169</v>
+        <v>0.004909568817022596</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.6578628308328</v>
+        <v>13.756101</v>
       </c>
       <c r="N19">
-        <v>13.6578628308328</v>
+        <v>27.512202</v>
       </c>
       <c r="O19">
-        <v>0.2480717962961705</v>
+        <v>0.2244462782017679</v>
       </c>
       <c r="P19">
-        <v>0.2480717962961705</v>
+        <v>0.1625500061227586</v>
       </c>
       <c r="Q19">
-        <v>10.77882640245699</v>
+        <v>15.246556201882</v>
       </c>
       <c r="R19">
-        <v>10.77882640245699</v>
+        <v>91.47933721129201</v>
       </c>
       <c r="S19">
-        <v>0.0009091303907150657</v>
+        <v>0.001052783195357392</v>
       </c>
       <c r="T19">
-        <v>0.0009091303907150657</v>
+        <v>0.0007980504412671277</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.23892418545323</v>
+        <v>2.24251</v>
       </c>
       <c r="H20">
-        <v>2.23892418545323</v>
+        <v>6.72753</v>
       </c>
       <c r="I20">
-        <v>0.01039679405363082</v>
+        <v>0.009490400078864978</v>
       </c>
       <c r="J20">
-        <v>0.01039679405363082</v>
+        <v>0.009933478064238518</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.80594684963588</v>
+        <v>0.8572995000000001</v>
       </c>
       <c r="N20">
-        <v>0.80594684963588</v>
+        <v>1.714599</v>
       </c>
       <c r="O20">
-        <v>0.01463865065748514</v>
+        <v>0.01398780672512048</v>
       </c>
       <c r="P20">
-        <v>0.01463865065748514</v>
+        <v>0.01013034427226421</v>
       </c>
       <c r="Q20">
-        <v>1.80445389383961</v>
+        <v>1.922502701745</v>
       </c>
       <c r="R20">
-        <v>1.80445389383961</v>
+        <v>11.53501621047</v>
       </c>
       <c r="S20">
-        <v>0.0001521950361089204</v>
+        <v>0.0001327498820472315</v>
       </c>
       <c r="T20">
-        <v>0.0001521950361089204</v>
+        <v>0.0001006295526117208</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.23892418545323</v>
+        <v>2.24251</v>
       </c>
       <c r="H21">
-        <v>2.23892418545323</v>
+        <v>6.72753</v>
       </c>
       <c r="I21">
-        <v>0.01039679405363082</v>
+        <v>0.009490400078864978</v>
       </c>
       <c r="J21">
-        <v>0.01039679405363082</v>
+        <v>0.009933478064238518</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>37.6801638071778</v>
+        <v>40.519894</v>
       </c>
       <c r="N21">
-        <v>37.6801638071778</v>
+        <v>121.559682</v>
       </c>
       <c r="O21">
-        <v>0.6843959436522313</v>
+        <v>0.6611276990064369</v>
       </c>
       <c r="P21">
-        <v>0.6843959436522313</v>
+        <v>0.7182095803665802</v>
       </c>
       <c r="Q21">
-        <v>84.36303005972984</v>
+        <v>90.86626749393999</v>
       </c>
       <c r="R21">
-        <v>84.36303005972984</v>
+        <v>817.79640744546</v>
       </c>
       <c r="S21">
-        <v>0.00711552367729257</v>
+        <v>0.00627436636679051</v>
       </c>
       <c r="T21">
-        <v>0.00711552367729257</v>
+        <v>0.007134319112097376</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.23892418545323</v>
+        <v>2.24251</v>
       </c>
       <c r="H22">
-        <v>2.23892418545323</v>
+        <v>6.72753</v>
       </c>
       <c r="I22">
-        <v>0.01039679405363082</v>
+        <v>0.009490400078864978</v>
       </c>
       <c r="J22">
-        <v>0.01039679405363082</v>
+        <v>0.009933478064238518</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.6926832104469109</v>
+        <v>1.90949</v>
       </c>
       <c r="N22">
-        <v>0.6926832104469109</v>
+        <v>5.728470000000001</v>
       </c>
       <c r="O22">
-        <v>0.01258140972772427</v>
+        <v>0.031155479576916</v>
       </c>
       <c r="P22">
-        <v>0.01258140972772427</v>
+        <v>0.03384544914194942</v>
       </c>
       <c r="Q22">
-        <v>1.550865192726978</v>
+        <v>4.2820504199</v>
       </c>
       <c r="R22">
-        <v>1.550865192726978</v>
+        <v>38.5384537791</v>
       </c>
       <c r="S22">
-        <v>0.0001308063258434966</v>
+        <v>0.0002956779658338398</v>
       </c>
       <c r="T22">
-        <v>0.0001308063258434966</v>
+        <v>0.0003362030266258549</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.23892418545323</v>
+        <v>2.24251</v>
       </c>
       <c r="H23">
-        <v>2.23892418545323</v>
+        <v>6.72753</v>
       </c>
       <c r="I23">
-        <v>0.01039679405363082</v>
+        <v>0.009490400078864978</v>
       </c>
       <c r="J23">
-        <v>0.01039679405363082</v>
+        <v>0.009933478064238518</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.260169673455239</v>
+        <v>0.5357033333333333</v>
       </c>
       <c r="N23">
-        <v>0.260169673455239</v>
+        <v>1.60711</v>
       </c>
       <c r="O23">
-        <v>0.004725538617222577</v>
+        <v>0.008740603124893291</v>
       </c>
       <c r="P23">
-        <v>0.004725538617222577</v>
+        <v>0.009495268330028494</v>
       </c>
       <c r="Q23">
-        <v>0.5825001742204038</v>
+        <v>1.201320082033333</v>
       </c>
       <c r="R23">
-        <v>0.5825001742204038</v>
+        <v>10.8118807383</v>
       </c>
       <c r="S23">
-        <v>4.913045179574249E-05</v>
+        <v>8.295182058581476E-05</v>
       </c>
       <c r="T23">
-        <v>4.913045179574249E-05</v>
+        <v>9.432103967039675E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.23892418545323</v>
+        <v>2.24251</v>
       </c>
       <c r="H24">
-        <v>2.23892418545323</v>
+        <v>6.72753</v>
       </c>
       <c r="I24">
-        <v>0.01039679405363082</v>
+        <v>0.009490400078864978</v>
       </c>
       <c r="J24">
-        <v>0.01039679405363082</v>
+        <v>0.009933478064238518</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.95926236869175</v>
+        <v>3.710570333333333</v>
       </c>
       <c r="N24">
-        <v>1.95926236869175</v>
+        <v>11.131711</v>
       </c>
       <c r="O24">
-        <v>0.0355866610491662</v>
+        <v>0.06054213336486552</v>
       </c>
       <c r="P24">
-        <v>0.0355866610491662</v>
+        <v>0.0657693517664191</v>
       </c>
       <c r="Q24">
-        <v>4.386639902912343</v>
+        <v>8.320991078203331</v>
       </c>
       <c r="R24">
-        <v>4.386639902912343</v>
+        <v>74.88891970383</v>
       </c>
       <c r="S24">
-        <v>0.0003699871859845466</v>
+        <v>0.0005745690672605738</v>
       </c>
       <c r="T24">
-        <v>0.0003699871859845466</v>
+        <v>0.000653318413070911</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.23892418545323</v>
+        <v>2.24251</v>
       </c>
       <c r="H25">
-        <v>2.23892418545323</v>
+        <v>6.72753</v>
       </c>
       <c r="I25">
-        <v>0.01039679405363082</v>
+        <v>0.009490400078864978</v>
       </c>
       <c r="J25">
-        <v>0.01039679405363082</v>
+        <v>0.009933478064238518</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.6578628308328</v>
+        <v>13.756101</v>
       </c>
       <c r="N25">
-        <v>13.6578628308328</v>
+        <v>27.512202</v>
       </c>
       <c r="O25">
-        <v>0.2480717962961705</v>
+        <v>0.2244462782017679</v>
       </c>
       <c r="P25">
-        <v>0.2480717962961705</v>
+        <v>0.1625500061227586</v>
       </c>
       <c r="Q25">
-        <v>30.57891941355427</v>
+        <v>30.84819405351</v>
       </c>
       <c r="R25">
-        <v>30.57891941355427</v>
+        <v>185.08916432106</v>
       </c>
       <c r="S25">
-        <v>0.002579151376605541</v>
+        <v>0.002130084976347009</v>
       </c>
       <c r="T25">
-        <v>0.002579151376605541</v>
+        <v>0.001614686920162259</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.57105150523816</v>
+        <v>2.976810666666667</v>
       </c>
       <c r="H26">
-        <v>2.57105150523816</v>
+        <v>8.930432</v>
       </c>
       <c r="I26">
-        <v>0.011939079123319</v>
+        <v>0.01259799251093616</v>
       </c>
       <c r="J26">
-        <v>0.011939079123319</v>
+        <v>0.01318615455838528</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.80594684963588</v>
+        <v>0.8572995000000001</v>
       </c>
       <c r="N26">
-        <v>0.80594684963588</v>
+        <v>1.714599</v>
       </c>
       <c r="O26">
-        <v>0.01463865065748514</v>
+        <v>0.01398780672512048</v>
       </c>
       <c r="P26">
-        <v>0.01463865065748514</v>
+        <v>0.01013034427226421</v>
       </c>
       <c r="Q26">
-        <v>2.072130860898282</v>
+        <v>2.552018296128</v>
       </c>
       <c r="R26">
-        <v>2.072130860898282</v>
+        <v>15.312109776768</v>
       </c>
       <c r="S26">
-        <v>0.0001747720084583409</v>
+        <v>0.0001762182843674902</v>
       </c>
       <c r="T26">
-        <v>0.0001747720084583409</v>
+        <v>0.0001335802853037288</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.57105150523816</v>
+        <v>2.976810666666667</v>
       </c>
       <c r="H27">
-        <v>2.57105150523816</v>
+        <v>8.930432</v>
       </c>
       <c r="I27">
-        <v>0.011939079123319</v>
+        <v>0.01259799251093616</v>
       </c>
       <c r="J27">
-        <v>0.011939079123319</v>
+        <v>0.01318615455838528</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>37.6801638071778</v>
+        <v>40.519894</v>
       </c>
       <c r="N27">
-        <v>37.6801638071778</v>
+        <v>121.559682</v>
       </c>
       <c r="O27">
-        <v>0.6843959436522313</v>
+        <v>0.6611276990064369</v>
       </c>
       <c r="P27">
-        <v>0.6843959436522313</v>
+        <v>0.7182095803665802</v>
       </c>
       <c r="Q27">
-        <v>96.87764187406492</v>
+        <v>120.6200526714027</v>
       </c>
       <c r="R27">
-        <v>96.87764187406492</v>
+        <v>1085.580474042624</v>
       </c>
       <c r="S27">
-        <v>0.008171057322942564</v>
+        <v>0.008328881800855547</v>
       </c>
       <c r="T27">
-        <v>0.008171057322942564</v>
+        <v>0.009470422532026759</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.57105150523816</v>
+        <v>2.976810666666667</v>
       </c>
       <c r="H28">
-        <v>2.57105150523816</v>
+        <v>8.930432</v>
       </c>
       <c r="I28">
-        <v>0.011939079123319</v>
+        <v>0.01259799251093616</v>
       </c>
       <c r="J28">
-        <v>0.011939079123319</v>
+        <v>0.01318615455838528</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.6926832104469109</v>
+        <v>1.90949</v>
       </c>
       <c r="N28">
-        <v>0.6926832104469109</v>
+        <v>5.728470000000001</v>
       </c>
       <c r="O28">
-        <v>0.01258140972772427</v>
+        <v>0.031155479576916</v>
       </c>
       <c r="P28">
-        <v>0.01258140972772427</v>
+        <v>0.03384544914194942</v>
       </c>
       <c r="Q28">
-        <v>1.780924210872731</v>
+        <v>5.684190199893334</v>
       </c>
       <c r="R28">
-        <v>1.780924210872731</v>
+        <v>51.15771179904</v>
       </c>
       <c r="S28">
-        <v>0.0001502104462221955</v>
+        <v>0.0003924964983846122</v>
       </c>
       <c r="T28">
-        <v>0.0001502104462221955</v>
+        <v>0.0004462913234837134</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.57105150523816</v>
+        <v>2.976810666666667</v>
       </c>
       <c r="H29">
-        <v>2.57105150523816</v>
+        <v>8.930432</v>
       </c>
       <c r="I29">
-        <v>0.011939079123319</v>
+        <v>0.01259799251093616</v>
       </c>
       <c r="J29">
-        <v>0.011939079123319</v>
+        <v>0.01318615455838528</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.260169673455239</v>
+        <v>0.5357033333333333</v>
       </c>
       <c r="N29">
-        <v>0.260169673455239</v>
+        <v>1.60711</v>
       </c>
       <c r="O29">
-        <v>0.004725538617222577</v>
+        <v>0.008740603124893291</v>
       </c>
       <c r="P29">
-        <v>0.004725538617222577</v>
+        <v>0.009495268330028494</v>
       </c>
       <c r="Q29">
-        <v>0.6689096305544128</v>
+        <v>1.594687396835555</v>
       </c>
       <c r="R29">
-        <v>0.6689096305544128</v>
+        <v>14.35218657152</v>
       </c>
       <c r="S29">
-        <v>5.641857945131983E-05</v>
+        <v>0.0001101140527084709</v>
       </c>
       <c r="T29">
-        <v>5.641857945131983E-05</v>
+        <v>0.0001252060757730966</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.57105150523816</v>
+        <v>2.976810666666667</v>
       </c>
       <c r="H30">
-        <v>2.57105150523816</v>
+        <v>8.930432</v>
       </c>
       <c r="I30">
-        <v>0.011939079123319</v>
+        <v>0.01259799251093616</v>
       </c>
       <c r="J30">
-        <v>0.011939079123319</v>
+        <v>0.01318615455838528</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.95926236869175</v>
+        <v>3.710570333333333</v>
       </c>
       <c r="N30">
-        <v>1.95926236869175</v>
+        <v>11.131711</v>
       </c>
       <c r="O30">
-        <v>0.0355866610491662</v>
+        <v>0.06054213336486552</v>
       </c>
       <c r="P30">
-        <v>0.0355866610491662</v>
+        <v>0.0657693517664191</v>
       </c>
       <c r="Q30">
-        <v>5.037364462181407</v>
+        <v>11.04566534768355</v>
       </c>
       <c r="R30">
-        <v>5.037364462181407</v>
+        <v>99.41098812915199</v>
       </c>
       <c r="S30">
-        <v>0.0004248719620007298</v>
+        <v>0.000762709342726674</v>
       </c>
       <c r="T30">
-        <v>0.0004248719620007298</v>
+        <v>0.000867244837596812</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.57105150523816</v>
+        <v>2.976810666666667</v>
       </c>
       <c r="H31">
-        <v>2.57105150523816</v>
+        <v>8.930432</v>
       </c>
       <c r="I31">
-        <v>0.011939079123319</v>
+        <v>0.01259799251093616</v>
       </c>
       <c r="J31">
-        <v>0.011939079123319</v>
+        <v>0.01318615455838528</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>13.6578628308328</v>
+        <v>13.756101</v>
       </c>
       <c r="N31">
-        <v>13.6578628308328</v>
+        <v>27.512202</v>
       </c>
       <c r="O31">
-        <v>0.2480717962961705</v>
+        <v>0.2244462782017679</v>
       </c>
       <c r="P31">
-        <v>0.2480717962961705</v>
+        <v>0.1625500061227586</v>
       </c>
       <c r="Q31">
-        <v>35.11506878954899</v>
+        <v>40.949308188544</v>
       </c>
       <c r="R31">
-        <v>35.11506878954899</v>
+        <v>245.695849131264</v>
       </c>
       <c r="S31">
-        <v>0.002961748804243854</v>
+        <v>0.002827572531893366</v>
       </c>
       <c r="T31">
-        <v>0.002961748804243854</v>
+        <v>0.002143409504201168</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>26.0700597444406</v>
+        <v>27.220577</v>
       </c>
       <c r="H32">
-        <v>26.0700597444406</v>
+        <v>54.441154</v>
       </c>
       <c r="I32">
-        <v>0.1210603931521388</v>
+        <v>0.1151986685042877</v>
       </c>
       <c r="J32">
-        <v>0.1210603931521388</v>
+        <v>0.08038462987914302</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.80594684963588</v>
+        <v>0.8572995000000001</v>
       </c>
       <c r="N32">
-        <v>0.80594684963588</v>
+        <v>1.714599</v>
       </c>
       <c r="O32">
-        <v>0.01463865065748514</v>
+        <v>0.01398780672512048</v>
       </c>
       <c r="P32">
-        <v>0.01463865065748514</v>
+        <v>0.01013034427226421</v>
       </c>
       <c r="Q32">
-        <v>21.01108252085108</v>
+        <v>23.3361870518115</v>
       </c>
       <c r="R32">
-        <v>21.01108252085108</v>
+        <v>93.34474820724601</v>
       </c>
       <c r="S32">
-        <v>0.001772160803811966</v>
+        <v>0.0016113767100292</v>
       </c>
       <c r="T32">
-        <v>0.001772160803811966</v>
+        <v>0.0008143239748742546</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>26.0700597444406</v>
+        <v>27.220577</v>
       </c>
       <c r="H33">
-        <v>26.0700597444406</v>
+        <v>54.441154</v>
       </c>
       <c r="I33">
-        <v>0.1210603931521388</v>
+        <v>0.1151986685042877</v>
       </c>
       <c r="J33">
-        <v>0.1210603931521388</v>
+        <v>0.08038462987914302</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>37.6801638071778</v>
+        <v>40.519894</v>
       </c>
       <c r="N33">
-        <v>37.6801638071778</v>
+        <v>121.559682</v>
       </c>
       <c r="O33">
-        <v>0.6843959436522313</v>
+        <v>0.6611276990064369</v>
       </c>
       <c r="P33">
-        <v>0.6843959436522313</v>
+        <v>0.7182095803665802</v>
       </c>
       <c r="Q33">
-        <v>982.3241216334335</v>
+        <v>1102.974894658838</v>
       </c>
       <c r="R33">
-        <v>982.3241216334335</v>
+        <v>6617.849367953027</v>
       </c>
       <c r="S33">
-        <v>0.08285324201026815</v>
+        <v>0.07616103063684501</v>
       </c>
       <c r="T33">
-        <v>0.08285324201026815</v>
+        <v>0.05773301129342218</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>26.0700597444406</v>
+        <v>27.220577</v>
       </c>
       <c r="H34">
-        <v>26.0700597444406</v>
+        <v>54.441154</v>
       </c>
       <c r="I34">
-        <v>0.1210603931521388</v>
+        <v>0.1151986685042877</v>
       </c>
       <c r="J34">
-        <v>0.1210603931521388</v>
+        <v>0.08038462987914302</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.6926832104469109</v>
+        <v>1.90949</v>
       </c>
       <c r="N34">
-        <v>0.6926832104469109</v>
+        <v>5.728470000000001</v>
       </c>
       <c r="O34">
-        <v>0.01258140972772427</v>
+        <v>0.031155479576916</v>
       </c>
       <c r="P34">
-        <v>0.01258140972772427</v>
+        <v>0.03384544914194942</v>
       </c>
       <c r="Q34">
-        <v>18.05829268032189</v>
+        <v>51.97741957573</v>
       </c>
       <c r="R34">
-        <v>18.05829268032189</v>
+        <v>311.86451745438</v>
       </c>
       <c r="S34">
-        <v>0.001523110408046444</v>
+        <v>0.003589069763873252</v>
       </c>
       <c r="T34">
-        <v>0.001523110408046444</v>
+        <v>0.002720653902368962</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>26.0700597444406</v>
+        <v>27.220577</v>
       </c>
       <c r="H35">
-        <v>26.0700597444406</v>
+        <v>54.441154</v>
       </c>
       <c r="I35">
-        <v>0.1210603931521388</v>
+        <v>0.1151986685042877</v>
       </c>
       <c r="J35">
-        <v>0.1210603931521388</v>
+        <v>0.08038462987914302</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.260169673455239</v>
+        <v>0.5357033333333333</v>
       </c>
       <c r="N35">
-        <v>0.260169673455239</v>
+        <v>1.60711</v>
       </c>
       <c r="O35">
-        <v>0.004725538617222577</v>
+        <v>0.008740603124893291</v>
       </c>
       <c r="P35">
-        <v>0.004725538617222577</v>
+        <v>0.009495268330028494</v>
       </c>
       <c r="Q35">
-        <v>6.782638930669682</v>
+        <v>14.58215383415667</v>
       </c>
       <c r="R35">
-        <v>6.782638930669682</v>
+        <v>87.49292300494</v>
       </c>
       <c r="S35">
-        <v>0.0005720755628565796</v>
+        <v>0.001006905841912124</v>
       </c>
       <c r="T35">
-        <v>0.0005720755628565796</v>
+        <v>0.0007632736303124889</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>26.0700597444406</v>
+        <v>27.220577</v>
       </c>
       <c r="H36">
-        <v>26.0700597444406</v>
+        <v>54.441154</v>
       </c>
       <c r="I36">
-        <v>0.1210603931521388</v>
+        <v>0.1151986685042877</v>
       </c>
       <c r="J36">
-        <v>0.1210603931521388</v>
+        <v>0.08038462987914302</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.95926236869175</v>
+        <v>3.710570333333333</v>
       </c>
       <c r="N36">
-        <v>1.95926236869175</v>
+        <v>11.131711</v>
       </c>
       <c r="O36">
-        <v>0.0355866610491662</v>
+        <v>0.06054213336486552</v>
       </c>
       <c r="P36">
-        <v>0.0355866610491662</v>
+        <v>0.0657693517664191</v>
       </c>
       <c r="Q36">
-        <v>51.07808700682813</v>
+        <v>101.0038654724157</v>
       </c>
       <c r="R36">
-        <v>51.07808700682813</v>
+        <v>606.0231928344939</v>
       </c>
       <c r="S36">
-        <v>0.004308135177583965</v>
+        <v>0.006974373152041519</v>
       </c>
       <c r="T36">
-        <v>0.004308135177583965</v>
+        <v>0.005286844999134761</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>26.0700597444406</v>
+        <v>27.220577</v>
       </c>
       <c r="H37">
-        <v>26.0700597444406</v>
+        <v>54.441154</v>
       </c>
       <c r="I37">
-        <v>0.1210603931521388</v>
+        <v>0.1151986685042877</v>
       </c>
       <c r="J37">
-        <v>0.1210603931521388</v>
+        <v>0.08038462987914302</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>13.6578628308328</v>
+        <v>13.756101</v>
       </c>
       <c r="N37">
-        <v>13.6578628308328</v>
+        <v>27.512202</v>
       </c>
       <c r="O37">
-        <v>0.2480717962961705</v>
+        <v>0.2244462782017679</v>
       </c>
       <c r="P37">
-        <v>0.2480717962961705</v>
+        <v>0.1625500061227586</v>
       </c>
       <c r="Q37">
-        <v>356.0612999811857</v>
+        <v>374.449006490277</v>
       </c>
       <c r="R37">
-        <v>356.0612999811857</v>
+        <v>1497.796025961108</v>
       </c>
       <c r="S37">
-        <v>0.0300316691895717</v>
+        <v>0.02585591239958659</v>
       </c>
       <c r="T37">
-        <v>0.0300316691895717</v>
+        <v>0.01306652207903038</v>
       </c>
     </row>
   </sheetData>
